--- a/regist.php 単体テスト仕様書.xlsx
+++ b/regist.php 単体テスト仕様書.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>テスト区分</t>
   </si>
@@ -25,6 +25,9 @@
     <t>操作手順</t>
   </si>
   <si>
+    <t>入力する値</t>
+  </si>
+  <si>
     <t>期待する動作</t>
   </si>
   <si>
@@ -52,6 +55,21 @@
     <t>全項目を正しく入力し「確認する」押下</t>
   </si>
   <si>
+    <t>項目        入力値
+名前（姓）        たなか
+名前（名）        たろう
+カナ（姓）        タナカ
+カナ（名）        タロウ
+メールアドレス        test@gmail.com
+パスワード        ssssss
+性別        男
+郵便番号        1234567
+都道府県        北海道
+市区町村        旭川市
+番地        あいうえお1-2-3
+アカウント権限        一般</t>
+  </si>
+  <si>
     <t>エラー無しでregist_confirm.phpへ遷移</t>
   </si>
   <si>
@@ -61,18 +79,63 @@
     <t>画面初期表示確認</t>
   </si>
   <si>
+    <t>項目        入力値
+名前（姓）        たなか
+名前（名）        たろう
+カナ（姓）        タナカ
+カナ（名）        タロウ
+メールアドレス        test@gmail.com
+パスワード        ssssss
+性別        未選択
+郵便番号        1234567
+都道府県        北海道
+市区町村        旭川市
+番地        あいうえお1-2-3
+アカウント権限        一般</t>
+  </si>
+  <si>
     <t>「男」が選択済み</t>
   </si>
   <si>
     <t>初期表示（権限）</t>
   </si>
   <si>
+    <t>項目        入力値
+名前（姓）        たなか
+名前（名）        たろう
+カナ（姓）        タナカ
+カナ（名）        タロウ
+メールアドレス        test@gmail.com
+パスワード        ssssss
+性別        男
+郵便番号        1234567
+都道府県        北海道
+市区町村        旭川市
+番地        あいうえお1-2-3
+アカウント権限        未選択</t>
+  </si>
+  <si>
     <t>「一般」が選択済み</t>
   </si>
   <si>
     <t>初期表示（都道府県）</t>
   </si>
   <si>
+    <t>項目        入力値
+名前（姓）        たなか
+名前（名）        たろう
+カナ（姓）        タナカ
+カナ（名）        タロウ
+メールアドレス        test@gmail.com
+パスワード        ssssss
+性別        男
+郵便番号        1234567
+都道府県        未選択
+市区町村        旭川市
+番地        あいうえお1-2-3
+アカウント権限        一般</t>
+  </si>
+  <si>
     <t>空欄選択済</t>
   </si>
   <si>
@@ -85,9 +148,93 @@
     <t>姓のみ空欄で送信</t>
   </si>
   <si>
+    <t>項目        入力値
+名前（姓）        空欄
+名前（名）        たろう
+カナ（姓）        タナカ
+カナ（名）        タロウ
+メールアドレス        test@gmail.com
+パスワード        ssssss
+性別        男
+郵便番号        1234567
+都道府県        北海道
+市区町村        旭川市
+番地        あいうえお1-2-3
+アカウント権限        一般</t>
+  </si>
+  <si>
     <t>「名前（姓）が未入力です。」赤字表示</t>
   </si>
   <si>
+    <t>名前未入力</t>
+  </si>
+  <si>
+    <t>名前のみ空欄で送信</t>
+  </si>
+  <si>
+    <t>項目        入力値
+名前（姓）        たなか
+名前（名）        空欄
+カナ（姓）        タナカ
+カナ（名）        タロウ
+メールアドレス        test@gmail.com
+パスワード        ssssss
+性別        男
+郵便番号        1234567
+都道府県        北海道
+市区町村        旭川市
+番地        あいうえお1-2-3
+アカウント権限        一般</t>
+  </si>
+  <si>
+    <t>カナ（姓）未入力</t>
+  </si>
+  <si>
+    <t>カナ（姓）のみ空欄で送信</t>
+  </si>
+  <si>
+    <t>項目        入力値
+名前（姓）        たなか
+名前（名）        たろう
+カナ（姓）        空欄
+カナ（名）        タロウ
+メールアドレス        test@gmail.com
+パスワード        ssssss
+性別        男
+郵便番号        1234567
+都道府県        北海道
+市区町村        旭川市
+番地        あいうえお1-2-3
+アカウント権限        一般</t>
+  </si>
+  <si>
+    <t>「カナ（姓）が未入力です。」赤字表示</t>
+  </si>
+  <si>
+    <t>カナ（名）未入力</t>
+  </si>
+  <si>
+    <t>カナ（名）のみ空欄で送信</t>
+  </si>
+  <si>
+    <t>項目        入力値
+名前（姓）        たなか
+名前（名）        たろう
+カナ（姓）        タナカ
+カナ（名）        空欄
+メールアドレス        test@gmail.com
+パスワード        ssssss
+性別        男
+郵便番号        1234567
+都道府県        北海道
+市区町村        旭川市
+番地        あいうえお1-2-3
+アカウント権限        一般</t>
+  </si>
+  <si>
+    <t>「カナ（名）が未入力です。」赤字表示</t>
+  </si>
+  <si>
     <t>メール未入力</t>
   </si>
   <si>
@@ -179,6 +326,9 @@
   </si>
   <si>
     <t>同画面に留まりエラー表示</t>
+  </si>
+  <si>
+    <t>入力する画面をすべて記入する</t>
   </si>
 </sst>
 </file>
@@ -188,7 +338,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -206,7 +356,6 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -272,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -298,8 +447,12 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -309,10 +462,19 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -531,18 +693,21 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="16.63"/>
     <col customWidth="1" min="4" max="4" width="28.0"/>
-    <col customWidth="1" min="5" max="5" width="32.13"/>
-    <col customWidth="1" min="6" max="6" width="9.13"/>
-    <col customWidth="1" min="7" max="7" width="8.88"/>
-    <col customWidth="1" min="8" max="8" width="8.13"/>
-    <col customWidth="1" min="9" max="9" width="25.88"/>
-    <col customWidth="1" min="10" max="10" width="22.5"/>
+    <col customWidth="1" min="5" max="6" width="32.13"/>
+    <col customWidth="1" min="7" max="7" width="9.13"/>
+    <col customWidth="1" min="8" max="8" width="8.88"/>
+    <col customWidth="1" min="9" max="9" width="8.13"/>
+    <col customWidth="1" min="10" max="10" width="25.88"/>
+    <col customWidth="1" min="11" max="11" width="22.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -576,29 +741,35 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5">
         <v>1.0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="9"/>
@@ -606,19 +777,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="9"/>
@@ -626,19 +800,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="10"/>
@@ -646,278 +823,341 @@
         <v>4.0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B6" s="12">
         <v>5.0</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7">
-      <c r="A7" s="9"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="12">
         <v>5.0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="9"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="12">
         <v>6.0</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9">
-      <c r="A9" s="10"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="12">
         <v>7.0</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="A10" s="14"/>
       <c r="B10" s="5">
         <v>8.0</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="8"/>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11">
-      <c r="A11" s="9"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="5">
         <v>9.0</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="8"/>
+      <c r="C11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12">
-      <c r="A12" s="9"/>
+      <c r="A12" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="B12" s="5">
         <v>10.0</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13">
-      <c r="A13" s="10"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="5">
         <v>11.0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="A14" s="14"/>
       <c r="B14" s="5">
         <v>12.0</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15">
-      <c r="A15" s="10"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="5">
         <v>13.0</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
-        <v>49</v>
+      <c r="A16" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="B16" s="12">
         <v>14.0</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="8"/>
+      <c r="C16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="10"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="12">
         <v>15.0</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="8"/>
+      <c r="C17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="18"/>
+      <c r="B19" s="12">
+        <v>17.0</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="13" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-  </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="F2:F15 G16:G17">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="G2:G17 H18:H19">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
